--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/TORNILLOS PELVICOS DR. FRANCO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/TORNILLOS PELVICOS DR. FRANCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8BDEC-C0B5-4CD7-8CA3-8AB34EB1EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74621B3B-B57E-4530-B734-D7F9BC941DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REAL" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>102.275</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>TORNILLOS PELVICOS -DR. FRANCO</t>
+  </si>
+  <si>
+    <t>TORNILLO PELVICO 3.5 X 75</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,15 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,7 +517,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,20 +529,8 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -566,6 +547,27 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -982,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1209,7 +1211,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="3">
         <f>SUM(D2:D15)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1591,192 +1593,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AFA6AC-5766-4797-A0ED-C7CB2BBBB59A}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="19" style="24" customWidth="1"/>
-    <col min="3" max="3" width="103.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="20.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19" style="21" customWidth="1"/>
+    <col min="3" max="3" width="103.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="20">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
-        <v>1</v>
-      </c>
-      <c r="B4" s="40">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
         <v>45356</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="41">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="32">
         <v>45356</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="32">
         <v>45362</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>4</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="32">
         <v>45369</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="32">
         <v>45369</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41">
+      <c r="A9" s="33">
         <v>6</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="32">
         <v>45369</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="33">
         <v>7</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="31">
         <v>45379</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="33">
         <v>8</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="31">
         <v>45379</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="22">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31">
+        <v>45397</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="28">
         <f>SUM(D4:D13)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="23">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="20">
         <f>D2-D14</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
